--- a/OSsimulation 1.7/OSsimulation/bin/Debug/Copy of ProcessRecords.xlsx
+++ b/OSsimulation 1.7/OSsimulation/bin/Debug/Copy of ProcessRecords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agazeley18\Source\Repos\CPU_Scheduler\OSsimulation 1.7\OSsimulation\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jthomas17\Desktop\OSsimulation 1.7\OSsimulation\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,13 +455,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
@@ -481,16 +481,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -507,16 +507,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>6</v>
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>6</v>
@@ -559,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -637,16 +637,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3">
         <v>6</v>
@@ -663,16 +663,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
         <v>6</v>
@@ -689,16 +689,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
@@ -8663,22 +8663,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8715,22 +8715,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8741,22 +8741,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8767,22 +8767,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8793,22 +8793,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8819,22 +8819,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8845,22 +8845,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8871,22 +8871,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8897,22 +8897,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9025,22 +9025,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9051,22 +9051,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9077,22 +9077,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9103,10 +9103,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -9129,22 +9129,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9155,22 +9155,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9207,22 +9207,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9233,22 +9233,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9259,22 +9259,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9287,7 +9287,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -9331,6 +9331,1306 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>136</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>204</v>
+      </c>
+      <c r="E13">
+        <v>204</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>96</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>98</v>
+      </c>
+      <c r="E18">
+        <v>98</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>157</v>
+      </c>
+      <c r="E23">
+        <v>157</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>119</v>
+      </c>
+      <c r="E26">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>97</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>66</v>
+      </c>
+      <c r="E39">
+        <v>66</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <v>54</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>75</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>37</v>
+      </c>
+      <c r="E43">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>123</v>
+      </c>
+      <c r="E46">
+        <v>123</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>116</v>
+      </c>
+      <c r="E49">
+        <v>116</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>120</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>63</v>
+      </c>
+      <c r="E53">
+        <v>63</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>179</v>
+      </c>
+      <c r="E54">
+        <v>179</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>139</v>
+      </c>
+      <c r="E56">
+        <v>139</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>109</v>
+      </c>
+      <c r="E60">
+        <v>109</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>22</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>63</v>
+      </c>
+      <c r="E61">
+        <v>63</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>29</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>41</v>
+      </c>
+      <c r="E65">
+        <v>41</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>57</v>
+      </c>
+      <c r="E67">
+        <v>57</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>49</v>
+      </c>
+      <c r="E69">
+        <v>49</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>129</v>
+      </c>
+      <c r="E71">
+        <v>129</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>85</v>
+      </c>
+      <c r="E72">
+        <v>85</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>25</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>104</v>
+      </c>
+      <c r="E81">
+        <v>104</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>105</v>
+      </c>
+      <c r="E86">
+        <v>105</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>143</v>
+      </c>
+      <c r="E93">
+        <v>143</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>85</v>
+      </c>
+      <c r="E96">
+        <v>85</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>192</v>
+      </c>
+      <c r="E97">
+        <v>192</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>88</v>
+      </c>
+      <c r="E99">
+        <v>88</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OSsimulation 1.7/OSsimulation/bin/Debug/Copy of ProcessRecords.xlsx
+++ b/OSsimulation 1.7/OSsimulation/bin/Debug/Copy of ProcessRecords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jthomas17\Desktop\OSsimulation 1.7\OSsimulation\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agazeley18\Source\Repos\CPU_Scheduler3\OSsimulation 1.7\OSsimulation\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,16 +455,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>6</v>
@@ -481,16 +481,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -507,16 +507,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <v>6</v>
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3">
         <v>6</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -637,16 +637,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>6</v>
@@ -663,16 +663,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
         <v>6</v>
@@ -689,16 +689,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
         <v>12</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
@@ -8663,16 +8663,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E4">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8715,16 +8715,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8741,16 +8741,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8767,16 +8767,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8793,22 +8793,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8819,22 +8819,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8845,10 +8845,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8871,16 +8871,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8897,16 +8897,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -9025,16 +9025,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9051,16 +9051,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -9103,16 +9103,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9129,10 +9129,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -9155,16 +9155,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9181,16 +9181,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9207,16 +9207,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9233,16 +9233,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9265,10 +9265,10 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -9287,7 +9287,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -9336,16 +9336,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9354,6 +9354,32 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -9362,128 +9388,102 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>204</v>
-      </c>
-      <c r="E13">
-        <v>204</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>96</v>
-      </c>
-      <c r="E14">
-        <v>96</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>59</v>
-      </c>
-      <c r="E16">
-        <v>59</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -9492,22 +9492,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="E18">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -9518,16 +9518,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -9544,16 +9544,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -9565,55 +9565,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>157</v>
-      </c>
-      <c r="E23">
-        <v>157</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>119</v>
-      </c>
-      <c r="E26">
-        <v>119</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>194</v>
+      </c>
+      <c r="E25">
+        <v>194</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
     </row>
@@ -9622,22 +9596,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="E27">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -9648,22 +9622,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -9674,16 +9648,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -9695,133 +9669,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="E31">
         <v>6</v>
       </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>23</v>
-      </c>
-      <c r="C39">
-        <v>23</v>
-      </c>
-      <c r="D39">
-        <v>66</v>
-      </c>
-      <c r="E39">
-        <v>66</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>54</v>
-      </c>
-      <c r="E40">
-        <v>54</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>75</v>
-      </c>
-      <c r="E42">
-        <v>75</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>20</v>
-      </c>
-      <c r="D43">
-        <v>37</v>
-      </c>
-      <c r="E43">
-        <v>37</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
     </row>
@@ -9830,22 +9778,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="E45">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -9856,16 +9804,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="E46">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -9874,6 +9822,32 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>54</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
     </row>
@@ -9882,16 +9856,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E49">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -9903,159 +9877,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <v>13</v>
-      </c>
-      <c r="D51">
-        <v>44</v>
-      </c>
-      <c r="E51">
-        <v>44</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <v>21</v>
-      </c>
-      <c r="D52">
-        <v>120</v>
-      </c>
-      <c r="E52">
-        <v>120</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>63</v>
-      </c>
-      <c r="E53">
-        <v>63</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>13</v>
-      </c>
-      <c r="C54">
-        <v>13</v>
-      </c>
-      <c r="D54">
-        <v>179</v>
-      </c>
-      <c r="E54">
-        <v>179</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <v>25</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>139</v>
-      </c>
-      <c r="E56">
-        <v>139</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>45</v>
+      </c>
+      <c r="E50">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>0</v>
       </c>
     </row>
@@ -10064,50 +9908,24 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>57</v>
-      </c>
-      <c r="E59">
-        <v>57</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
         <v>0</v>
       </c>
     </row>
@@ -10116,16 +9934,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -10137,55 +9955,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>22</v>
-      </c>
-      <c r="C61">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>63</v>
-      </c>
-      <c r="E61">
-        <v>63</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>29</v>
-      </c>
-      <c r="C62">
-        <v>29</v>
-      </c>
-      <c r="D62">
-        <v>67</v>
-      </c>
-      <c r="E62">
-        <v>67</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>0</v>
       </c>
     </row>
@@ -10200,70 +9992,44 @@
         <v>3</v>
       </c>
       <c r="D65">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="E65">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>57</v>
-      </c>
-      <c r="E67">
-        <v>57</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>14</v>
-      </c>
-      <c r="C69">
-        <v>14</v>
-      </c>
-      <c r="D69">
-        <v>49</v>
-      </c>
-      <c r="E69">
-        <v>49</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>104</v>
+      </c>
+      <c r="E70">
+        <v>104</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>0</v>
       </c>
     </row>
@@ -10272,16 +10038,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E71">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -10298,50 +10064,76 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E72">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>21</v>
-      </c>
-      <c r="C73">
-        <v>21</v>
-      </c>
-      <c r="D73">
-        <v>26</v>
-      </c>
-      <c r="E73">
-        <v>26</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>0</v>
       </c>
     </row>
@@ -10350,24 +10142,76 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E77">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>106</v>
+      </c>
+      <c r="E79">
+        <v>106</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>0</v>
       </c>
     </row>
@@ -10376,16 +10220,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E80">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10402,16 +10246,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E81">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10423,29 +10267,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>17</v>
-      </c>
-      <c r="C84">
-        <v>17</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>32</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>108</v>
+      </c>
+      <c r="E85">
+        <v>108</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>0</v>
       </c>
     </row>
@@ -10454,16 +10324,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="E86">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -10480,24 +10350,102 @@
         <v>86</v>
       </c>
       <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
         <v>13</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>13</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
+      <c r="D90">
+        <v>171</v>
+      </c>
+      <c r="E90">
+        <v>171</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>139</v>
+      </c>
+      <c r="E91">
+        <v>139</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>126</v>
+      </c>
+      <c r="E92">
+        <v>126</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>0</v>
       </c>
     </row>
@@ -10506,16 +10454,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E93">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -10524,6 +10472,58 @@
         <v>0</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>102</v>
+      </c>
+      <c r="E94">
+        <v>102</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>156</v>
+      </c>
+      <c r="E95">
+        <v>156</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>0</v>
       </c>
     </row>
@@ -10532,16 +10532,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="E96">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -10558,16 +10558,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D97">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="E97">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -10584,16 +10584,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -10610,24 +10610,50 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>0</v>
       </c>
     </row>
